--- a/APPdata_Acme2CRP/Thresholds_ACME2CRP.xlsx
+++ b/APPdata_Acme2CRP/Thresholds_ACME2CRP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPdata_Acme2CRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wipro365-my.sharepoint.com/personal/ma80050179_wipro_com/Documents/Documents/GitHub/ACME2_CRP/APPdata_Acme2CRP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF08E4-9D30-4AAD-B383-D721A39ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{76FF08E4-9D30-4AAD-B383-D721A39ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D20424-5D5E-4A30-9A52-685D3E24A95C}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{FF1C3437-CD9C-427B-9E1D-11DA42C7719A}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>ACME-2 GM-2 MDE</t>
   </si>
   <si>
-    <t xml:space="preserve">ACME-2 GM-3 GB IP DE </t>
-  </si>
-  <si>
     <t>ACME-2 GM-3 MDE</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">ACME-2 Grinding Machine-3 Gearbox </t>
+  </si>
+  <si>
+    <t>ACME-2 GM-3 GB IP DE</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61FAB3-C691-4C73-AAAE-3776BD69182B}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -821,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -921,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1046,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>3</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>6</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>

--- a/APPdata_Acme2CRP/Thresholds_ACME2CRP.xlsx
+++ b/APPdata_Acme2CRP/Thresholds_ACME2CRP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wipro365-my.sharepoint.com/personal/ma80050179_wipro_com/Documents/Documents/GitHub/ACME2_CRP/APPdata_Acme2CRP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{76FF08E4-9D30-4AAD-B383-D721A39ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D20424-5D5E-4A30-9A52-685D3E24A95C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{76FF08E4-9D30-4AAD-B383-D721A39ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54881877-CCE0-4B87-9C4E-AC02D2845D22}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{FF1C3437-CD9C-427B-9E1D-11DA42C7719A}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9912" xr2:uid="{FF1C3437-CD9C-427B-9E1D-11DA42C7719A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>ACME-2 GM-3 MDE</t>
   </si>
   <si>
-    <t xml:space="preserve">ACME-2 GM-4 GB IP DE </t>
-  </si>
-  <si>
     <t>ACME-2 GM-4 MDE</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>ACME-2 GM-3 GB IP DE</t>
+  </si>
+  <si>
+    <t>ACME-2 GM-4 GB IP DE</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61FAB3-C691-4C73-AAAE-3776BD69182B}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -821,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -921,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1046,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
@@ -1221,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -1271,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>3</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>6</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
